--- a/data/trans_dic/P1423_2016_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1423_2016_2023-Estudios-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03000700613248727</v>
+        <v>0.02970301272880618</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05931463635625775</v>
+        <v>0.06188236186551672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09579912427951576</v>
+        <v>0.09902283367640304</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1332845279114326</v>
+        <v>0.1346117101087563</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07169860149670293</v>
+        <v>0.07196273513319282</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1092795371410457</v>
+        <v>0.1088713385291494</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06103628551942596</v>
+        <v>0.05968474335878989</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.104339459378305</v>
+        <v>0.103620882483309</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1390670673108011</v>
+        <v>0.1407946845376372</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1713582604944833</v>
+        <v>0.1745633978160153</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0982773815399344</v>
+        <v>0.1006982224680135</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1381214082886234</v>
+        <v>0.1376312136863119</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.05731726856824631</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.06898317926148369</v>
+        <v>0.06898317926148366</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03664990185139667</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01118025251353272</v>
+        <v>0.011683148848118</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03420917349130918</v>
+        <v>0.03446030155115375</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04719117170723992</v>
+        <v>0.0468651435368567</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0609965257419494</v>
+        <v>0.06061607329647369</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03068968927271089</v>
+        <v>0.03072951960509141</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04965740595692603</v>
+        <v>0.04968383486133573</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02343273394770755</v>
+        <v>0.02310433974424572</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0525979356796835</v>
+        <v>0.05322278134893198</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06903128616668344</v>
+        <v>0.06870061098878545</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07919031337761841</v>
+        <v>0.07926840193475158</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04305924425435394</v>
+        <v>0.04269234337595221</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0626424216389907</v>
+        <v>0.06277994571767975</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001614253504778069</v>
+        <v>0.001627150912474998</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02487256486346459</v>
+        <v>0.02616258969225307</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009327303019789747</v>
+        <v>0.009728640897885454</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0299822565774491</v>
+        <v>0.03053456697750056</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007402213956591341</v>
+        <v>0.00725006891455774</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03109781926462657</v>
+        <v>0.03152100628222584</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01735683725247436</v>
+        <v>0.01684089498796345</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05684457678065479</v>
+        <v>0.06017453575805044</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03947300326839927</v>
+        <v>0.04118326331278659</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05581760043921911</v>
+        <v>0.05648249466398376</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02446746507229045</v>
+        <v>0.02497881999176173</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05356341263251811</v>
+        <v>0.0522984695845481</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.02089225823837448</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04820410623638728</v>
+        <v>0.04820410623638729</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.06843811972133033</v>
@@ -870,7 +870,7 @@
         <v>0.04519668750710221</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.06567999561326951</v>
+        <v>0.06567999561326954</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01626946438383397</v>
+        <v>0.01651263290778361</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04100993327314366</v>
+        <v>0.04043623988961565</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05940595955989365</v>
+        <v>0.0594492750852181</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07415291594330575</v>
+        <v>0.07498591657916098</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04065923872130602</v>
+        <v>0.03986096974012752</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06081898410020022</v>
+        <v>0.06040244898337078</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02642946770326928</v>
+        <v>0.02655125001599313</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05637781424041835</v>
+        <v>0.05573192127874611</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07763542131920052</v>
+        <v>0.07707823279601057</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08961042473031006</v>
+        <v>0.09034591116450964</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05053217818915528</v>
+        <v>0.05033816809122011</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07148972568646431</v>
+        <v>0.07140598423556387</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>22636</v>
+        <v>22406</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>34213</v>
+        <v>35694</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>95288</v>
+        <v>98494</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>109469</v>
+        <v>110559</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>125401</v>
+        <v>125863</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>152786</v>
+        <v>152215</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>46043</v>
+        <v>45023</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>60183</v>
+        <v>59769</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>138324</v>
+        <v>140043</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>140739</v>
+        <v>143372</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>171888</v>
+        <v>176122</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>193110</v>
+        <v>192425</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23215</v>
+        <v>24259</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>76256</v>
+        <v>76816</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>93830</v>
+        <v>93182</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>132192</v>
+        <v>131367</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>124744</v>
+        <v>124906</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>218310</v>
+        <v>218426</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>48655</v>
+        <v>47974</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>117247</v>
+        <v>118640</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>137255</v>
+        <v>136597</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>171621</v>
+        <v>171790</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>175022</v>
+        <v>173531</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>275396</v>
+        <v>276001</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17647</v>
+        <v>18562</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5122</v>
+        <v>5342</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>22033</v>
+        <v>22439</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8113</v>
+        <v>7946</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>44916</v>
+        <v>45528</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9492</v>
+        <v>9210</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>40330</v>
+        <v>42693</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21676</v>
+        <v>22615</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>41019</v>
+        <v>41508</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>26817</v>
+        <v>27377</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>77365</v>
+        <v>75538</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>54952</v>
+        <v>55773</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>144166</v>
+        <v>142150</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>209828</v>
+        <v>209981</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>276100</v>
+        <v>279202</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>280944</v>
+        <v>275428</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>440256</v>
+        <v>437241</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>89269</v>
+        <v>89680</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>198191</v>
+        <v>195920</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>274216</v>
+        <v>272248</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>333655</v>
+        <v>336393</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>349163</v>
+        <v>347823</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>517499</v>
+        <v>516893</v>
       </c>
     </row>
     <row r="20">
